--- a/src/Bustops on the Island.xlsx
+++ b/src/Bustops on the Island.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AarthiGk\Documents\JavaTraining\routecollector\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8207C1-5A48-4A14-8E2C-4DFC2841CF39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE1508-97DA-4473-8492-039E8F9F9754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AF492BE-43BF-4AC7-B7E0-ACA22F56BCB9}"/>
+    <workbookView xWindow="1910" yWindow="130" windowWidth="17290" windowHeight="10070" xr2:uid="{5AF492BE-43BF-4AC7-B7E0-ACA22F56BCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="falmo" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Obalende </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Falomo</t>
   </si>
@@ -444,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C99947-DCA3-4BB9-99E7-E9B2EB73770B}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -550,39 +545,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F6B2F7-0544-4E71-AFA2-7E72A5CC7492}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D439CA-3D05-46B4-A85D-299D59FDDB05}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>